--- a/football_team_training_data.xlsx
+++ b/football_team_training_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,6 +1313,482 @@
         <v>6</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rahmatganj MFS</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>8</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Club Eagles</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mohun Bagan</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Uttara FC</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>40%</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bashundhara Kings</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Sheikh Jamal DC</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Sheikh Russel KC</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mohammedan SC</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>7</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Abahani Limited Dhaka</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Brothers Union</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>12</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Macarthur</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>45%</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Wellington Phoenix</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>4</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Ventforet Kofu</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Newcastle Jets</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Perth Glory</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>7</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/football_team_training_data.xlsx
+++ b/football_team_training_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,202 +478,202 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Borussia Dortmund</t>
+          <t>Nyíregyháza Spartacus</t>
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>62%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Vasas</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Unterhaching</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>SCR Altach</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sint-Truiden</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Nyiregyhaza Spartacus FC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>FC Košice</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Nyiregyhaza Spartacus FC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Siófok</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -682,66 +682,66 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Nyiregyhaza Spartacus FC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Kozármisleny</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Nyiregyhaza Spartacus FC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Club Brugge</t>
+          <t>Csákvári TK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
         <v>6</v>
@@ -750,409 +750,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Nyiregyhaza Spartacus FC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KRC Genk</t>
+          <t>BVSC Zugló</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Standard Liege</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Antwerp</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>38%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>62%</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Karlsruhe</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Standard Liège</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>41%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>59%</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Lincoln Red Imps</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>65%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>35%</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>12</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FC Basel</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>51%</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FC Zürich</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>52%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>48%</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FC Lugano</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FC Winterthur</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BSC Young Boys</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>6</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>4</v>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FC Thun</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>54%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>46%</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>FC Luzern</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>FC Rapperswil-Jona</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>3</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>58%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>10</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/football_team_training_data.xlsx
+++ b/football_team_training_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,19 +478,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nyíregyháza Spartacus</t>
+          <t>Adelaide United</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -506,279 +506,313 @@
         <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vasas</t>
+          <t>Western United</t>
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>46%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unterhaching</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>3</v>
-      </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SCR Altach</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Newcastle Jets FC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FC Košice</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Siófok</t>
+          <t>Macarthur</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>49%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kozármisleny</t>
+          <t>Newcastle Jets</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>49%</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>57%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>43%</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10</v>
-      </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Csákvári TK</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nyiregyhaza Spartacus FC</t>
+          <t>Brisbane Roar</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BVSC Zugló</t>
+          <t>Melbourne City</t>
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>38%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>62%</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2</v>
       </c>
-      <c r="D10" t="n">
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Brisbane Roar</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>53%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>47%</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
